--- a/src/lithium/data/Megacompile 17-11-2018.xlsx
+++ b/src/lithium/data/Megacompile 17-11-2018.xlsx
@@ -1,14 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26722"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28705"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="8480" yWindow="0" windowWidth="42720" windowHeight="18920" tabRatio="500"/>
+    <workbookView xWindow="560" yWindow="560" windowWidth="25040" windowHeight="15500" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Li-pH" sheetId="1" r:id="rId1"/>
     <sheet name="Feuil1" sheetId="2" r:id="rId2"/>
+    <sheet name="15" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="12">
   <si>
     <t>Temps</t>
   </si>
@@ -68,6 +69,7 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="128"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -210,8 +212,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -232,11 +240,17 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="11">
     <cellStyle name="Lien hypertexte" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Lien hypertexte" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="9" builtinId="8" hidden="1"/>
     <cellStyle name="Lien hypertexte visité" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Lien hypertexte visité" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="10" builtinId="9" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -4361,11 +4375,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2132862536"/>
-        <c:axId val="-2111063624"/>
+        <c:axId val="2044983416"/>
+        <c:axId val="2044986408"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2132862536"/>
+        <c:axId val="2044983416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4375,12 +4389,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2111063624"/>
+        <c:crossAx val="2044986408"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2111063624"/>
+        <c:axId val="2044986408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4391,7 +4405,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2132862536"/>
+        <c:crossAx val="2044983416"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4772,8 +4786,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M63"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L63" activeCellId="5" sqref="A2:B63 D2:D63 F2:F63 H2:H63 J2:J63 L2:L63"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G1" sqref="G1:G1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -7306,4 +7320,707 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C63"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:C1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetData>
+    <row r="1" spans="1:3" ht="16" thickBot="1"/>
+    <row r="2" spans="1:3" ht="16" thickBot="1">
+      <c r="A2" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="1">
+        <v>0</v>
+      </c>
+      <c r="B3" s="4">
+        <v>6.1166265926054466</v>
+      </c>
+      <c r="C3" s="4">
+        <v>0.15923190464261699</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="1">
+        <v>5</v>
+      </c>
+      <c r="B4" s="4">
+        <v>6.1018800119677037</v>
+      </c>
+      <c r="C4" s="4">
+        <v>0.15511347069588191</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="1">
+        <v>10</v>
+      </c>
+      <c r="B5" s="4">
+        <v>6.0758102138729937</v>
+      </c>
+      <c r="C5" s="4">
+        <v>0.15565370585862215</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="1">
+        <v>15</v>
+      </c>
+      <c r="B6" s="4">
+        <v>6.0647380137691984</v>
+      </c>
+      <c r="C6" s="4">
+        <v>0.15686004516122182</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="1">
+        <v>20</v>
+      </c>
+      <c r="B7" s="4">
+        <v>6.062815456110406</v>
+      </c>
+      <c r="C7" s="4">
+        <v>0.15302489697028285</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="1">
+        <v>25</v>
+      </c>
+      <c r="B8" s="4">
+        <v>6.0587267390669401</v>
+      </c>
+      <c r="C8" s="4">
+        <v>0.15386763883746502</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="1">
+        <v>30</v>
+      </c>
+      <c r="B9" s="4">
+        <v>6.0713978962740329</v>
+      </c>
+      <c r="C9" s="4">
+        <v>0.14972446511003326</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="1">
+        <v>35</v>
+      </c>
+      <c r="B10" s="4">
+        <v>6.0837771851671452</v>
+      </c>
+      <c r="C10" s="4">
+        <v>0.14988730611523374</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="1">
+        <v>40</v>
+      </c>
+      <c r="B11" s="4">
+        <v>6.0966433682434875</v>
+      </c>
+      <c r="C11" s="4">
+        <v>0.14455546967095681</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="1">
+        <v>45</v>
+      </c>
+      <c r="B12" s="4">
+        <v>6.1111062664727962</v>
+      </c>
+      <c r="C12" s="4">
+        <v>0.14500016509580094</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="1">
+        <v>50</v>
+      </c>
+      <c r="B13" s="4">
+        <v>6.1275790278219651</v>
+      </c>
+      <c r="C13" s="4">
+        <v>0.1377077639377125</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="1">
+        <v>55</v>
+      </c>
+      <c r="B14" s="4">
+        <v>6.1454131053489922</v>
+      </c>
+      <c r="C14" s="4">
+        <v>0.13561116735529344</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="1">
+        <v>60</v>
+      </c>
+      <c r="B15" s="4">
+        <v>6.176814424986806</v>
+      </c>
+      <c r="C15" s="4">
+        <v>0.13560111133261232</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="1">
+        <v>65</v>
+      </c>
+      <c r="B16" s="4">
+        <v>6.18</v>
+      </c>
+      <c r="C16" s="4">
+        <v>6.7631927931952412E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="1">
+        <v>70</v>
+      </c>
+      <c r="B17" s="4">
+        <v>6.1926178473943638</v>
+      </c>
+      <c r="C17" s="4">
+        <v>0.13614264610131865</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="1">
+        <v>75</v>
+      </c>
+      <c r="B18" s="4">
+        <v>6.2103616627098104</v>
+      </c>
+      <c r="C18" s="4">
+        <v>0.13125752713401512</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="1">
+        <v>80</v>
+      </c>
+      <c r="B19" s="4">
+        <v>6.2200113573261824</v>
+      </c>
+      <c r="C19" s="4">
+        <v>0.14176806146209928</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="1">
+        <v>85</v>
+      </c>
+      <c r="B20" s="4">
+        <v>6.2324637552276227</v>
+      </c>
+      <c r="C20" s="4">
+        <v>0.14717305854459967</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="1">
+        <v>90</v>
+      </c>
+      <c r="B21" s="4">
+        <v>6.2486636719327731</v>
+      </c>
+      <c r="C21" s="4">
+        <v>0.15720203703451183</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="1">
+        <v>95</v>
+      </c>
+      <c r="B22" s="4">
+        <v>6.2565979785599639</v>
+      </c>
+      <c r="C22" s="4">
+        <v>0.15764276156172402</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="1">
+        <v>100</v>
+      </c>
+      <c r="B23" s="4">
+        <v>6.2638319998984127</v>
+      </c>
+      <c r="C23" s="4">
+        <v>0.15987035704310998</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="1">
+        <v>105</v>
+      </c>
+      <c r="B24" s="4">
+        <v>6.2652684747927161</v>
+      </c>
+      <c r="C24" s="4">
+        <v>0.16136405291780512</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="1">
+        <v>110</v>
+      </c>
+      <c r="B25" s="4">
+        <v>6.2663920863946743</v>
+      </c>
+      <c r="C25" s="4">
+        <v>0.16055015954523272</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="1">
+        <v>115</v>
+      </c>
+      <c r="B26" s="4">
+        <v>6.266347189960241</v>
+      </c>
+      <c r="C26" s="4">
+        <v>0.1539369172455155</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="1">
+        <v>120</v>
+      </c>
+      <c r="B27" s="4">
+        <v>6.2704902342743702</v>
+      </c>
+      <c r="C27" s="4">
+        <v>0.15276178126713022</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="1">
+        <v>125</v>
+      </c>
+      <c r="B28" s="4">
+        <v>6.2696504567350742</v>
+      </c>
+      <c r="C28" s="4">
+        <v>0.15367509227996823</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="1">
+        <v>130</v>
+      </c>
+      <c r="B29" s="4">
+        <v>6.2795828487624785</v>
+      </c>
+      <c r="C29" s="4">
+        <v>0.14854179852347174</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="1">
+        <v>135</v>
+      </c>
+      <c r="B30" s="4">
+        <v>6.2801412017912099</v>
+      </c>
+      <c r="C30" s="4">
+        <v>0.14588914967313071</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="1">
+        <v>140</v>
+      </c>
+      <c r="B31" s="4">
+        <v>6.2854182404662655</v>
+      </c>
+      <c r="C31" s="4">
+        <v>0.14462178322080316</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="1">
+        <v>145</v>
+      </c>
+      <c r="B32" s="4">
+        <v>6.2878978828120369</v>
+      </c>
+      <c r="C32" s="4">
+        <v>0.14137519565589493</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="1">
+        <v>150</v>
+      </c>
+      <c r="B33" s="4">
+        <v>6.2922938832060362</v>
+      </c>
+      <c r="C33" s="4">
+        <v>0.14245868525764649</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="1">
+        <v>155</v>
+      </c>
+      <c r="B34" s="4">
+        <v>6.2911904511561385</v>
+      </c>
+      <c r="C34" s="4">
+        <v>0.14027055522080079</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="1">
+        <v>160</v>
+      </c>
+      <c r="B35" s="4">
+        <v>6.2957006826225133</v>
+      </c>
+      <c r="C35" s="4">
+        <v>0.14200905831686891</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="1">
+        <v>165</v>
+      </c>
+      <c r="B36" s="4">
+        <v>6.2997977307622932</v>
+      </c>
+      <c r="C36" s="4">
+        <v>0.14102029729326701</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" s="1">
+        <v>170</v>
+      </c>
+      <c r="B37" s="4">
+        <v>6.3088915199337299</v>
+      </c>
+      <c r="C37" s="4">
+        <v>0.14236405285436046</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" s="1">
+        <v>175</v>
+      </c>
+      <c r="B38" s="4">
+        <v>6.3082706281258432</v>
+      </c>
+      <c r="C38" s="4">
+        <v>0.14390881703788896</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" s="1">
+        <v>180</v>
+      </c>
+      <c r="B39" s="4">
+        <v>6.3205598117804414</v>
+      </c>
+      <c r="C39" s="4">
+        <v>0.13957869107938953</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" s="1">
+        <v>185</v>
+      </c>
+      <c r="B40" s="4">
+        <v>6.3303850965568822</v>
+      </c>
+      <c r="C40" s="4">
+        <v>0.14030607415987925</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" s="1">
+        <v>190</v>
+      </c>
+      <c r="B41" s="4">
+        <v>6.3377026344501166</v>
+      </c>
+      <c r="C41" s="4">
+        <v>0.14156976073331667</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" s="1">
+        <v>195</v>
+      </c>
+      <c r="B42" s="4">
+        <v>6.3484270513458476</v>
+      </c>
+      <c r="C42" s="4">
+        <v>0.14030203443255862</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" s="1">
+        <v>200</v>
+      </c>
+      <c r="B43" s="4">
+        <v>6.3463384747576015</v>
+      </c>
+      <c r="C43" s="4">
+        <v>0.14427207648563756</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" s="1">
+        <v>205</v>
+      </c>
+      <c r="B44" s="4">
+        <v>6.3485584338974368</v>
+      </c>
+      <c r="C44" s="4">
+        <v>0.14227561372103739</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" s="1">
+        <v>210</v>
+      </c>
+      <c r="B45" s="4">
+        <v>6.3459003780948562</v>
+      </c>
+      <c r="C45" s="4">
+        <v>0.14245051335481634</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" s="1">
+        <v>215</v>
+      </c>
+      <c r="B46" s="4">
+        <v>6.361803554835233</v>
+      </c>
+      <c r="C46" s="4">
+        <v>0.1432445094534259</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" s="1">
+        <v>220</v>
+      </c>
+      <c r="B47" s="4">
+        <v>6.3648768961380604</v>
+      </c>
+      <c r="C47" s="4">
+        <v>0.1448530608816182</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" s="1">
+        <v>225</v>
+      </c>
+      <c r="B48" s="4">
+        <v>6.3752082005749298</v>
+      </c>
+      <c r="C48" s="4">
+        <v>0.14578954399203056</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" s="1">
+        <v>230</v>
+      </c>
+      <c r="B49" s="4">
+        <v>6.3767522177191669</v>
+      </c>
+      <c r="C49" s="4">
+        <v>0.14302540096372846</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" s="1">
+        <v>235</v>
+      </c>
+      <c r="B50" s="4">
+        <v>6.3838592429454355</v>
+      </c>
+      <c r="C50" s="4">
+        <v>0.14639827395599622</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51" s="1">
+        <v>240</v>
+      </c>
+      <c r="B51" s="4">
+        <v>6.3881907940174809</v>
+      </c>
+      <c r="C51" s="4">
+        <v>0.14660520345447417</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" s="1">
+        <v>245</v>
+      </c>
+      <c r="B52" s="4">
+        <v>6.3911243687548946</v>
+      </c>
+      <c r="C52" s="4">
+        <v>0.14701518857015727</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53" s="1">
+        <v>250</v>
+      </c>
+      <c r="B53" s="4">
+        <v>6.3969921839797816</v>
+      </c>
+      <c r="C53" s="4">
+        <v>0.14942935571318852</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="A54" s="1">
+        <v>255</v>
+      </c>
+      <c r="B54" s="4">
+        <v>6.4035978614818632</v>
+      </c>
+      <c r="C54" s="4">
+        <v>0.14888975567585533</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
+      <c r="A55" s="1">
+        <v>260</v>
+      </c>
+      <c r="B55" s="4">
+        <v>6.4068272740381271</v>
+      </c>
+      <c r="C55" s="4">
+        <v>0.15297226237172462</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="A56" s="1">
+        <v>265</v>
+      </c>
+      <c r="B56" s="4">
+        <v>6.4137565796485791</v>
+      </c>
+      <c r="C56" s="4">
+        <v>0.15439639058395421</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
+      <c r="A57" s="1">
+        <v>270</v>
+      </c>
+      <c r="B57" s="4">
+        <v>6.4199033171755699</v>
+      </c>
+      <c r="C57" s="4">
+        <v>0.15337545163980881</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
+      <c r="A58" s="1">
+        <v>275</v>
+      </c>
+      <c r="B58" s="4">
+        <v>6.4300661284653895</v>
+      </c>
+      <c r="C58" s="4">
+        <v>0.15094557072324111</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
+      <c r="A59" s="1">
+        <v>280</v>
+      </c>
+      <c r="B59" s="4">
+        <v>6.4370469544183262</v>
+      </c>
+      <c r="C59" s="4">
+        <v>0.15450624068995508</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
+      <c r="A60" s="1">
+        <v>285</v>
+      </c>
+      <c r="B60" s="4">
+        <v>6.4481352645680765</v>
+      </c>
+      <c r="C60" s="4">
+        <v>0.16250124476487829</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3">
+      <c r="A61" s="1">
+        <v>290</v>
+      </c>
+      <c r="B61" s="4">
+        <v>6.4571841676108654</v>
+      </c>
+      <c r="C61" s="4">
+        <v>0.16456889886260451</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3">
+      <c r="A62" s="1">
+        <v>295</v>
+      </c>
+      <c r="B62" s="4">
+        <v>6.4664693051632733</v>
+      </c>
+      <c r="C62" s="4">
+        <v>0.1675680442384587</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" ht="16" thickBot="1">
+      <c r="A63" s="2">
+        <v>300</v>
+      </c>
+      <c r="B63" s="7">
+        <v>6.4751286959095786</v>
+      </c>
+      <c r="C63" s="7">
+        <v>0.16652180709002345</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
 </file>